--- a/Statistical_PERT_Normal_CherryBlossom_0.5.xlsx
+++ b/Statistical_PERT_Normal_CherryBlossom_0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SPYDER\William\My Documents\Statistical PERT\Cherry Blossom Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE8165A-061D-486F-8EE3-930CBF6AF8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA083199-645C-45C0-A2C3-FFD3970FE58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3517,54 +3517,6 @@
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="22"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Welcome to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Statistical PERT®</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="22"/>
-        <color rgb="FFF1592A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="22"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cherry Blossum Edition</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4867,6 +4819,54 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> It has not been fully tested and may contain errors!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="22"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Welcome to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Statistical PERT®</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="22"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="22"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cherry Blossom Edition</t>
     </r>
   </si>
 </sst>
@@ -6564,6 +6564,11 @@
     <xf numFmtId="9" fontId="77" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6609,11 +6614,6 @@
     <xf numFmtId="0" fontId="63" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -27545,10 +27545,10 @@
     <row r="2" spans="1:7" ht="28.75">
       <c r="A2" s="3"/>
       <c r="B2" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="C2" s="248" t="s">
-        <v>808</v>
+        <v>822</v>
+      </c>
+      <c r="C2" s="233" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -27566,7 +27566,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D5" s="107"/>
       <c r="G5" s="102"/>
@@ -27574,7 +27574,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G6" s="102"/>
     </row>
@@ -27586,7 +27586,7 @@
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D8" s="108"/>
       <c r="G8" s="102"/>
@@ -27602,14 +27602,14 @@
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G10" s="102"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G11" s="102"/>
     </row>
@@ -27620,76 +27620,76 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
-      <c r="B13" s="249" t="s">
-        <v>802</v>
+      <c r="B13" s="234" t="s">
+        <v>801</v>
       </c>
       <c r="G13" s="102"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
-      <c r="B14" s="249" t="s">
-        <v>801</v>
+      <c r="B14" s="234" t="s">
+        <v>800</v>
       </c>
       <c r="G14" s="102"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
-      <c r="B15" s="250" t="s">
-        <v>805</v>
+      <c r="B15" s="235" t="s">
+        <v>804</v>
       </c>
       <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="B16" s="249" t="s">
-        <v>806</v>
+      <c r="B16" s="234" t="s">
+        <v>805</v>
       </c>
       <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
-      <c r="B17" s="249"/>
+      <c r="B17" s="234"/>
       <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3"/>
-      <c r="B18" s="249" t="s">
-        <v>807</v>
+      <c r="B18" s="234" t="s">
+        <v>806</v>
       </c>
       <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3"/>
-      <c r="B19" s="249" t="s">
-        <v>803</v>
+      <c r="B19" s="234" t="s">
+        <v>802</v>
       </c>
       <c r="G19" s="102"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
-      <c r="B20" s="249" t="s">
-        <v>804</v>
+      <c r="B20" s="234" t="s">
+        <v>803</v>
       </c>
       <c r="G20" s="102"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="31"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G22" s="102"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -27919,10 +27919,10 @@
         <v>44347</v>
       </c>
       <c r="B3" s="126" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -27930,10 +27930,10 @@
         <v>44347</v>
       </c>
       <c r="B4" s="126" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27944,7 +27944,7 @@
         <v>644</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -31069,7 +31069,7 @@
     <row r="2" spans="1:7" ht="28.75">
       <c r="A2" s="3"/>
       <c r="B2" s="71" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2" s="101"/>
     </row>
@@ -31080,7 +31080,7 @@
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D4" s="106"/>
       <c r="G4" s="102"/>
@@ -31088,7 +31088,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D5" s="107"/>
       <c r="G5" s="102"/>
@@ -31096,7 +31096,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G6" s="102"/>
     </row>
@@ -31150,7 +31150,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G14" s="102"/>
     </row>
@@ -31162,25 +31162,25 @@
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
+        <v>815</v>
+      </c>
+      <c r="G18" s="236"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="236"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3"/>
@@ -31190,7 +31190,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="193" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -31400,7 +31400,7 @@
     <row r="1" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="36"/>
       <c r="B1" s="71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -31442,7 +31442,7 @@
       <c r="A3" s="109"/>
       <c r="B3" s="110"/>
       <c r="C3" s="111" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D3" s="112"/>
       <c r="E3" s="112"/>
@@ -31511,13 +31511,13 @@
     <row r="6" spans="1:18" ht="20.2" customHeight="1">
       <c r="A6" s="84"/>
       <c r="B6" s="221" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" s="210" t="s">
+        <v>785</v>
+      </c>
+      <c r="D6" s="222" t="s">
         <v>790</v>
-      </c>
-      <c r="C6" s="210" t="s">
-        <v>786</v>
-      </c>
-      <c r="D6" s="222" t="s">
-        <v>791</v>
       </c>
       <c r="E6" s="223"/>
       <c r="F6" s="224"/>
@@ -31537,7 +31537,7 @@
     <row r="7" spans="1:18" ht="20.2" hidden="1" customHeight="1">
       <c r="A7" s="84"/>
       <c r="B7" s="221" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C7" s="211">
         <f>YEAR(C4)</f>
@@ -31562,7 +31562,7 @@
     <row r="8" spans="1:18" ht="20.2" hidden="1" customHeight="1">
       <c r="A8" s="84"/>
       <c r="B8" s="221" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="211" t="str">
         <f>_xlfn.CONCAT("01-Jan-",C7)</f>
@@ -31587,7 +31587,7 @@
     <row r="9" spans="1:18" ht="20.2" hidden="1" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="221" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C9" s="211">
         <f>C4-C8+1</f>
@@ -31612,7 +31612,7 @@
     <row r="10" spans="1:18" ht="20.2" hidden="1" customHeight="1">
       <c r="A10" s="84"/>
       <c r="B10" s="221" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="211">
         <f>C5-C8+1</f>
@@ -31801,7 +31801,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="222" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E17" s="223"/>
       <c r="F17" s="224"/>
@@ -32345,10 +32345,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2"/>
-      <c r="B41" s="234" t="s">
+      <c r="B41" s="237" t="s">
         <v>630</v>
       </c>
-      <c r="C41" s="234"/>
+      <c r="C41" s="237"/>
       <c r="D41" s="143"/>
       <c r="E41" s="143"/>
       <c r="F41" s="143"/>
@@ -33862,7 +33862,7 @@
   <sheetData>
     <row r="1" spans="1:425" ht="24" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -33898,20 +33898,20 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="236" t="s">
+      <c r="M2" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="236" t="s">
+      <c r="N2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="238" t="s">
+      <c r="O2" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
       <c r="U2" s="3"/>
       <c r="V2" s="75" t="s">
         <v>56</v>
@@ -33950,8 +33950,8 @@
       <c r="L3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="66">
         <v>0.1</v>
       </c>
@@ -35754,11 +35754,11 @@
     </row>
     <row r="7" spans="1:425" ht="16" hidden="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="153">
@@ -39586,15 +39586,15 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="2"/>
-      <c r="B29" s="234" t="s">
+      <c r="B29" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
       <c r="I29" s="68"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -39611,15 +39611,15 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2"/>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
       <c r="I30" s="68"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -39636,15 +39636,15 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="2"/>
-      <c r="B31" s="234" t="s">
+      <c r="B31" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
       <c r="I31" s="68"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -39661,15 +39661,15 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="2"/>
-      <c r="B32" s="234" t="s">
+      <c r="B32" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="234"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
       <c r="I32" s="68"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -39686,15 +39686,15 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2"/>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="237" t="s">
         <v>630</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
       <c r="I33" s="68"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -39873,15 +39873,15 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="B43" s="235" t="s">
+      <c r="B43" s="238" t="s">
         <v>614</v>
       </c>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="235"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="238"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="238"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52"/>
@@ -41036,7 +41036,7 @@
   <sheetData>
     <row r="1" spans="1:425" ht="24" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -41072,20 +41072,20 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="236" t="s">
+      <c r="M2" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="236" t="s">
+      <c r="N2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="238" t="s">
+      <c r="O2" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
       <c r="U2" s="3"/>
       <c r="V2" s="75" t="s">
         <v>56</v>
@@ -41124,8 +41124,8 @@
       <c r="L3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="66">
         <v>0.1</v>
       </c>
@@ -41157,7 +41157,7 @@
     </row>
     <row r="4" spans="1:425" s="165" customFormat="1">
       <c r="A4" s="156" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B4" s="157">
         <v>72</v>
@@ -42928,11 +42928,11 @@
     </row>
     <row r="7" spans="1:425" ht="16" hidden="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="153">
@@ -46277,7 +46277,7 @@
         <v>3.2754455529185756E-4</v>
       </c>
       <c r="PA11" s="116">
-        <f t="shared" ref="PA11:QJ11" si="24">MAX(PA8:PA10)</f>
+        <f t="shared" ref="PA11:PH11" si="24">MAX(PA8:PA10)</f>
         <v>2.9214252179728107E-4</v>
       </c>
       <c r="PB11" s="116">
@@ -46760,15 +46760,15 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="2"/>
-      <c r="B29" s="234" t="s">
+      <c r="B29" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
       <c r="I29" s="195"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -46785,15 +46785,15 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2"/>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
       <c r="I30" s="195"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -46810,15 +46810,15 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="2"/>
-      <c r="B31" s="234" t="s">
+      <c r="B31" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
       <c r="I31" s="195"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -46835,15 +46835,15 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="2"/>
-      <c r="B32" s="234" t="s">
+      <c r="B32" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="234"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
       <c r="I32" s="195"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -46860,15 +46860,15 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2"/>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="237" t="s">
         <v>630</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
       <c r="I33" s="195"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -47047,15 +47047,15 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="B43" s="235" t="s">
+      <c r="B43" s="238" t="s">
         <v>614</v>
       </c>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="235"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="238"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="238"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52"/>
@@ -47914,16 +47914,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="O7:T7">
     <cfRule type="colorScale" priority="2">
@@ -48210,7 +48210,7 @@
   <sheetData>
     <row r="1" spans="1:425" ht="24" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -48246,20 +48246,20 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="236" t="s">
+      <c r="M2" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="236" t="s">
+      <c r="N2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="238" t="s">
+      <c r="O2" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="243"/>
       <c r="U2" s="3"/>
       <c r="V2" s="75" t="s">
         <v>56</v>
@@ -48298,8 +48298,8 @@
       <c r="L3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="66">
         <v>0.1</v>
       </c>
@@ -48331,7 +48331,7 @@
     </row>
     <row r="4" spans="1:425" s="165" customFormat="1">
       <c r="A4" s="156" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B4" s="157">
         <v>70</v>
@@ -50102,11 +50102,11 @@
     </row>
     <row r="7" spans="1:425" ht="16" hidden="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="153">
@@ -53451,7 +53451,7 @@
         <v>2.0442294241107526E-4</v>
       </c>
       <c r="PA11" s="116">
-        <f t="shared" ref="PA11:QJ11" si="24">MAX(PA8:PA10)</f>
+        <f t="shared" ref="PA11:PH11" si="24">MAX(PA8:PA10)</f>
         <v>1.8027288169062734E-4</v>
       </c>
       <c r="PB11" s="116">
@@ -53934,15 +53934,15 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="2"/>
-      <c r="B29" s="234" t="s">
+      <c r="B29" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
       <c r="I29" s="195"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -53959,15 +53959,15 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2"/>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="234"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
       <c r="I30" s="195"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -53984,15 +53984,15 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="2"/>
-      <c r="B31" s="234" t="s">
+      <c r="B31" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="234"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
       <c r="I31" s="195"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -54009,15 +54009,15 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="2"/>
-      <c r="B32" s="234" t="s">
+      <c r="B32" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="234"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
       <c r="I32" s="195"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -54034,15 +54034,15 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2"/>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="237" t="s">
         <v>630</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
       <c r="I33" s="195"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -54221,15 +54221,15 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="B43" s="235" t="s">
+      <c r="B43" s="238" t="s">
         <v>614</v>
       </c>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="235"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="238"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="238"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52"/>
@@ -55088,16 +55088,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="O7:T7">
     <cfRule type="colorScale" priority="2">
@@ -55377,35 +55377,35 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="197" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="197" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="197" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="197" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="197" t="s">
+        <v>670</v>
+      </c>
+      <c r="J6" s="198" t="s">
         <v>671</v>
-      </c>
-      <c r="J6" s="198" t="s">
-        <v>672</v>
       </c>
       <c r="K6" s="199">
         <f>AVERAGE(C11:C111)</f>
@@ -55415,7 +55415,7 @@
         <v>44562</v>
       </c>
       <c r="N6" s="198" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O6" s="199">
         <f>AVERAGE(C62:C111)</f>
@@ -55425,7 +55425,7 @@
         <v>44562</v>
       </c>
       <c r="R6" s="198" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S6" s="199">
         <f>AVERAGE(C87:C111)</f>
@@ -55437,10 +55437,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="197" t="s">
+        <v>674</v>
+      </c>
+      <c r="J7" s="198" t="s">
         <v>675</v>
-      </c>
-      <c r="J7" s="198" t="s">
-        <v>676</v>
       </c>
       <c r="K7" s="199">
         <f>_xlfn.STDEV.P(C11:C111)</f>
@@ -55451,7 +55451,7 @@
         <v>44655.643564356433</v>
       </c>
       <c r="N7" s="198" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O7" s="199">
         <f>_xlfn.STDEV.P(C62:C111)</f>
@@ -55462,7 +55462,7 @@
         <v>44653.52</v>
       </c>
       <c r="R7" s="198" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S7" s="199">
         <f>_xlfn.STDEV.P(C87:C111)</f>
@@ -55475,7 +55475,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="197" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J8" s="198" t="s">
         <v>23</v>
@@ -55549,21 +55549,21 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="204" t="s">
+        <v>677</v>
+      </c>
+      <c r="B10" s="202" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="202" t="s">
+      <c r="C10" s="202" t="s">
         <v>679</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="D10" s="202" t="s">
         <v>680</v>
-      </c>
-      <c r="D10" s="202" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="205" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B11" s="200">
         <v>7672</v>
@@ -55578,7 +55578,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="205" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B12" s="200">
         <v>8037</v>
@@ -55593,7 +55593,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="205" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" s="200">
         <v>8402</v>
@@ -55608,7 +55608,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="205" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B14" s="200">
         <v>8767</v>
@@ -55620,22 +55620,22 @@
         <f t="shared" si="0"/>
         <v>8871</v>
       </c>
-      <c r="G14" s="245" t="s">
-        <v>784</v>
-      </c>
-      <c r="H14" s="245"/>
-      <c r="I14" s="245"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="245"/>
-      <c r="N14" s="245"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="245"/>
+      <c r="G14" s="248" t="s">
+        <v>783</v>
+      </c>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="P14" s="248"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="205" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B15" s="200">
         <v>9133</v>
@@ -55650,7 +55650,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="205" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B16" s="200">
         <v>9498</v>
@@ -55665,7 +55665,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="205" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B17" s="200">
         <v>9863</v>
@@ -55680,7 +55680,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="205" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B18" s="200">
         <v>10228</v>
@@ -55695,7 +55695,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="205" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B19" s="200">
         <v>10594</v>
@@ -55710,7 +55710,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="205" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B20" s="200">
         <v>10959</v>
@@ -55725,7 +55725,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="205" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B21" s="200">
         <v>11324</v>
@@ -55740,7 +55740,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="205" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B22" s="200">
         <v>11689</v>
@@ -55755,7 +55755,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="205" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B23" s="200">
         <v>12055</v>
@@ -55770,7 +55770,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="205" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B24" s="200">
         <v>12420</v>
@@ -55785,7 +55785,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="205" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B25" s="200">
         <v>12785</v>
@@ -55800,7 +55800,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="205" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B26" s="200">
         <v>13150</v>
@@ -55815,7 +55815,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="205" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B27" s="200">
         <v>13516</v>
@@ -55830,7 +55830,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="205" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B28" s="200">
         <v>13881</v>
@@ -55845,7 +55845,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="205" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B29" s="200">
         <v>14246</v>
@@ -55860,7 +55860,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="205" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B30" s="200">
         <v>14611</v>
@@ -55875,7 +55875,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="205" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B31" s="200">
         <v>14977</v>
@@ -55890,7 +55890,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="205" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B32" s="200">
         <v>15342</v>
@@ -55905,7 +55905,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="205" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B33" s="200">
         <v>15707</v>
@@ -55920,7 +55920,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="205" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B34" s="200">
         <v>16072</v>
@@ -55935,7 +55935,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="205" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B35" s="200">
         <v>16438</v>
@@ -55950,7 +55950,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="205" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B36" s="200">
         <v>16803</v>
@@ -55965,7 +55965,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="205" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B37" s="200">
         <v>17168</v>
@@ -55980,7 +55980,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="205" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B38" s="200">
         <v>17533</v>
@@ -55995,7 +55995,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="205" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B39" s="200">
         <v>17899</v>
@@ -56010,7 +56010,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="205" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B40" s="200">
         <v>18264</v>
@@ -56025,7 +56025,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="205" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B41" s="200">
         <v>18629</v>
@@ -56040,7 +56040,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="205" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B42" s="200">
         <v>18994</v>
@@ -56055,7 +56055,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="205" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B43" s="200">
         <v>19360</v>
@@ -56070,7 +56070,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="205" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B44" s="200">
         <v>19725</v>
@@ -56085,7 +56085,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="205" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B45" s="200">
         <v>20090</v>
@@ -56100,7 +56100,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="205" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B46" s="200">
         <v>20455</v>
@@ -56115,7 +56115,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="205" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B47" s="200">
         <v>20821</v>
@@ -56130,7 +56130,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="205" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B48" s="200">
         <v>21186</v>
@@ -56145,7 +56145,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="205" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B49" s="200">
         <v>21551</v>
@@ -56160,7 +56160,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="205" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B50" s="200">
         <v>21916</v>
@@ -56175,7 +56175,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="205" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B51" s="200">
         <v>22282</v>
@@ -56190,7 +56190,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="205" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B52" s="200">
         <v>22647</v>
@@ -56205,7 +56205,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="205" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B53" s="200">
         <v>23012</v>
@@ -56220,7 +56220,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="205" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B54" s="200">
         <v>23377</v>
@@ -56235,7 +56235,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="205" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B55" s="200">
         <v>23743</v>
@@ -56250,7 +56250,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="205" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B56" s="200">
         <v>24108</v>
@@ -56265,7 +56265,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="205" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B57" s="200">
         <v>24473</v>
@@ -56280,7 +56280,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="205" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B58" s="200">
         <v>24838</v>
@@ -56295,7 +56295,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="205" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B59" s="200">
         <v>25204</v>
@@ -56310,7 +56310,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="205" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B60" s="200">
         <v>25569</v>
@@ -56325,7 +56325,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="205" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B61" s="200">
         <v>25934</v>
@@ -56340,7 +56340,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="205" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B62" s="200">
         <v>26299</v>
@@ -56355,7 +56355,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="205" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B63" s="200">
         <v>26665</v>
@@ -56370,7 +56370,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="205" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B64" s="200">
         <v>27030</v>
@@ -56385,7 +56385,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="205" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B65" s="200">
         <v>27395</v>
@@ -56400,7 +56400,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="205" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B66" s="200">
         <v>27760</v>
@@ -56415,7 +56415,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="205" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B67" s="200">
         <v>28126</v>
@@ -56430,7 +56430,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="205" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B68" s="200">
         <v>28491</v>
@@ -56445,7 +56445,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="205" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B69" s="200">
         <v>28856</v>
@@ -56460,7 +56460,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="205" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B70" s="200">
         <v>29221</v>
@@ -56475,7 +56475,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="205" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B71" s="200">
         <v>29587</v>
@@ -56490,7 +56490,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="205" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B72" s="200">
         <v>29952</v>
@@ -56505,7 +56505,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="205" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B73" s="200">
         <v>30317</v>
@@ -56520,7 +56520,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="205" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B74" s="200">
         <v>30682</v>
@@ -56535,7 +56535,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="205" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B75" s="200">
         <v>31048</v>
@@ -56550,7 +56550,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="205" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B76" s="200">
         <v>31413</v>
@@ -56565,7 +56565,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="205" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B77" s="200">
         <v>31778</v>
@@ -56580,7 +56580,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="205" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B78" s="200">
         <v>32143</v>
@@ -56595,7 +56595,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="205" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B79" s="200">
         <v>32509</v>
@@ -56610,7 +56610,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="205" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B80" s="200">
         <v>32874</v>
@@ -56625,7 +56625,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="205" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B81" s="200">
         <v>33239</v>
@@ -56640,7 +56640,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="205" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B82" s="200">
         <v>33604</v>
@@ -56655,7 +56655,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="205" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B83" s="200">
         <v>33970</v>
@@ -56670,7 +56670,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="205" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B84" s="200">
         <v>34335</v>
@@ -56685,7 +56685,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="205" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B85" s="200">
         <v>34700</v>
@@ -56700,7 +56700,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="205" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B86" s="200">
         <v>35065</v>
@@ -56715,7 +56715,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="205" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B87" s="200">
         <v>35431</v>
@@ -56730,7 +56730,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="205" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B88" s="200">
         <v>35796</v>
@@ -56745,7 +56745,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="205" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B89" s="200">
         <v>36161</v>
@@ -56760,7 +56760,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="205" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B90" s="200">
         <v>36526</v>
@@ -56775,7 +56775,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="205" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B91" s="200">
         <v>36892</v>
@@ -56790,7 +56790,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="205" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B92" s="200">
         <v>37257</v>
@@ -56805,7 +56805,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="205" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B93" s="200">
         <v>37622</v>
@@ -56820,7 +56820,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="205" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B94" s="200">
         <v>37987</v>
@@ -56835,7 +56835,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="205" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B95" s="200">
         <v>38353</v>
@@ -56850,7 +56850,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="205" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B96" s="200">
         <v>38718</v>
@@ -56865,7 +56865,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="205" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B97" s="200">
         <v>39083</v>
@@ -56880,7 +56880,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="205" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B98" s="200">
         <v>39448</v>
@@ -56895,7 +56895,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="205" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B99" s="200">
         <v>39814</v>
@@ -56910,7 +56910,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="205" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B100" s="200">
         <v>40179</v>
@@ -56925,7 +56925,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="205" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B101" s="200">
         <v>40544</v>
@@ -56940,7 +56940,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="205" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B102" s="200">
         <v>40909</v>
@@ -56955,7 +56955,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="205" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B103" s="200">
         <v>41275</v>
@@ -56970,7 +56970,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="205" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B104" s="200">
         <v>41640</v>
@@ -56985,7 +56985,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="205" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B105" s="200">
         <v>42005</v>
@@ -57000,7 +57000,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="205" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B106" s="200">
         <v>42370</v>
@@ -57015,7 +57015,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="205" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B107" s="200">
         <v>42736</v>
@@ -57030,7 +57030,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="205" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B108" s="200">
         <v>43101</v>
@@ -57045,7 +57045,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="205" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B109" s="200">
         <v>43466</v>
@@ -57060,7 +57060,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="205" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B110" s="200">
         <v>43831</v>
@@ -57075,7 +57075,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="205" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B111" s="200">
         <v>44197</v>
@@ -57101,59 +57101,59 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="246" t="s">
+      <c r="A115" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="B115" s="246"/>
-      <c r="C115" s="246"/>
-      <c r="D115" s="246"/>
-      <c r="E115" s="246"/>
-      <c r="F115" s="246"/>
-      <c r="G115" s="246"/>
+      <c r="B115" s="249"/>
+      <c r="C115" s="249"/>
+      <c r="D115" s="249"/>
+      <c r="E115" s="249"/>
+      <c r="F115" s="249"/>
+      <c r="G115" s="249"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="246" t="s">
+      <c r="A116" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="246"/>
-      <c r="C116" s="246"/>
-      <c r="D116" s="246"/>
-      <c r="E116" s="246"/>
-      <c r="F116" s="246"/>
-      <c r="G116" s="246"/>
+      <c r="B116" s="249"/>
+      <c r="C116" s="249"/>
+      <c r="D116" s="249"/>
+      <c r="E116" s="249"/>
+      <c r="F116" s="249"/>
+      <c r="G116" s="249"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="246" t="s">
+      <c r="A117" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="246"/>
-      <c r="C117" s="246"/>
-      <c r="D117" s="246"/>
-      <c r="E117" s="246"/>
-      <c r="F117" s="246"/>
-      <c r="G117" s="246"/>
+      <c r="B117" s="249"/>
+      <c r="C117" s="249"/>
+      <c r="D117" s="249"/>
+      <c r="E117" s="249"/>
+      <c r="F117" s="249"/>
+      <c r="G117" s="249"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="246" t="s">
+      <c r="A118" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="246"/>
-      <c r="C118" s="246"/>
-      <c r="D118" s="246"/>
-      <c r="E118" s="246"/>
-      <c r="F118" s="246"/>
-      <c r="G118" s="246"/>
+      <c r="B118" s="249"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="249"/>
+      <c r="F118" s="249"/>
+      <c r="G118" s="249"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="246" t="s">
+      <c r="A119" s="249" t="s">
         <v>630</v>
       </c>
-      <c r="B119" s="246"/>
-      <c r="C119" s="246"/>
-      <c r="D119" s="246"/>
-      <c r="E119" s="246"/>
-      <c r="F119" s="246"/>
-      <c r="G119" s="246"/>
+      <c r="B119" s="249"/>
+      <c r="C119" s="249"/>
+      <c r="D119" s="249"/>
+      <c r="E119" s="249"/>
+      <c r="F119" s="249"/>
+      <c r="G119" s="249"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="207" t="s">
@@ -57244,15 +57244,15 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="244" t="s">
+      <c r="A129" s="247" t="s">
         <v>614</v>
       </c>
-      <c r="B129" s="244"/>
-      <c r="C129" s="244"/>
-      <c r="D129" s="244"/>
-      <c r="E129" s="244"/>
-      <c r="F129" s="244"/>
-      <c r="G129" s="244"/>
+      <c r="B129" s="247"/>
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="247"/>
+      <c r="F129" s="247"/>
+      <c r="G129" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -57689,7 +57689,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>23</v>
@@ -57698,15 +57698,15 @@
         <v>24</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="132" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B37" s="4">
         <f>'1921-2021 Historical Data'!K8</f>
@@ -57727,7 +57727,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="132" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B38" s="4">
         <f>'1921-2021 Historical Data'!O8</f>
@@ -57748,7 +57748,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="132" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B39" s="4">
         <f>'1921-2021 Historical Data'!S8</f>
@@ -57823,13 +57823,13 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="247" t="s">
+      <c r="A53" s="250" t="s">
         <v>614</v>
       </c>
-      <c r="B53" s="247"/>
-      <c r="C53" s="247"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="247"/>
+      <c r="B53" s="250"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -57927,11 +57927,11 @@
       <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="E17" s="233" t="s">
+      <c r="E17" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" s="102" t="s">

--- a/Statistical_PERT_Normal_CherryBlossom_0.5.xlsx
+++ b/Statistical_PERT_Normal_CherryBlossom_0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SPYDER\William\My Documents\Statistical PERT\Cherry Blossom Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA083199-645C-45C0-A2C3-FFD3970FE58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA811A33-A464-45CA-AD34-97F58EF901D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
